--- a/output/fit_clients/fit_round_299.xlsx
+++ b/output/fit_clients/fit_round_299.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2018517913.547687</v>
+        <v>2442526964.404023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08020232051604677</v>
+        <v>0.08239825281370218</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03208675672351453</v>
+        <v>0.03332241084972873</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1009258954.878338</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2270652012.48353</v>
+        <v>2027780670.84756</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1233641951137761</v>
+        <v>0.1837076744359231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03783603940641986</v>
+        <v>0.04736715732293507</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1135326088.215431</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4643674497.540983</v>
+        <v>5186626424.283949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1205143651175625</v>
+        <v>0.1299932963278433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0302684028625257</v>
+        <v>0.03433348573149766</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>108</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2321837308.549757</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2589951498.11961</v>
+        <v>3862180807.691206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09405849754322955</v>
+        <v>0.08666594613922353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04199181623741922</v>
+        <v>0.03814146859126781</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1294975846.045972</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2450570939.473354</v>
+        <v>2607527215.983567</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09283833783305814</v>
+        <v>0.1267696177856782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04240190057158265</v>
+        <v>0.0464096990397174</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1225285450.569077</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2717177305.111995</v>
+        <v>2393430683.94765</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06251176704004659</v>
+        <v>0.0989331008260554</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04539092443371478</v>
+        <v>0.04367518666133011</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>94</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1358588644.684466</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3166019762.959441</v>
+        <v>3416826895.874147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2117746091688825</v>
+        <v>0.1485354507399941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02146354528947109</v>
+        <v>0.02566554189583427</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1583009955.967553</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1912540182.009345</v>
+        <v>2244582434.954215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1220938818276307</v>
+        <v>0.1418164171063596</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02970682925031094</v>
+        <v>0.02693474807336626</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>956270129.7393246</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5019151540.451722</v>
+        <v>4844508742.21237</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1597014565546828</v>
+        <v>0.1548826921259399</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04173280281355575</v>
+        <v>0.0361870259916417</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>126</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2509575871.00179</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3413744310.923004</v>
+        <v>4067170731.810237</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1568704009867057</v>
+        <v>0.1167019033987411</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03194121956287296</v>
+        <v>0.04536861390652581</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1706872127.229679</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2245542711.617001</v>
+        <v>2395338847.735479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.141090083011068</v>
+        <v>0.1490009540807608</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05044589802578611</v>
+        <v>0.04407233243540156</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>102</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1122771304.735833</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3708590675.041957</v>
+        <v>3525958124.816294</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08597346285431882</v>
+        <v>0.09295005243859986</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01912141166885944</v>
+        <v>0.0296443731125627</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1854295407.255896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3160425130.104164</v>
+        <v>2986144415.628241</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16380689044352</v>
+        <v>0.1594562491698557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02850106946312282</v>
+        <v>0.03096600799011271</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1580212587.875347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1123737574.851134</v>
+        <v>1284648166.303349</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07427958764932843</v>
+        <v>0.1067910671668989</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03430197800896024</v>
+        <v>0.04504156707611585</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>561868787.6221802</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2458679328.146211</v>
+        <v>2618083774.407842</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1164517616200491</v>
+        <v>0.1114167215197382</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04015908013884638</v>
+        <v>0.04024469516338978</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>58</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1229339698.58549</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4466001541.444968</v>
+        <v>4638690528.291283</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1451545297985291</v>
+        <v>0.1659880924263093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04073954260327586</v>
+        <v>0.04912081542873016</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>87</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2233000782.298398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2556986193.200408</v>
+        <v>3640465989.102397</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1775064191070011</v>
+        <v>0.1376042700578391</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02386123754508519</v>
+        <v>0.02133589706295369</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>98</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1278493158.914472</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1082250916.995565</v>
+        <v>1074999627.690583</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1300864975097845</v>
+        <v>0.1383695018171789</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01922211773718037</v>
+        <v>0.01888652832448965</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>541125507.7603364</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2580915326.405124</v>
+        <v>2621354232.99122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1304063339242315</v>
+        <v>0.1009828293412563</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02278526898038034</v>
+        <v>0.03073771303395358</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1290457627.683163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1656658774.243666</v>
+        <v>1747979062.421157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08220751116107756</v>
+        <v>0.07085290412634915</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03843577257586472</v>
+        <v>0.03440561164513607</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>828329455.9148923</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3008824686.807086</v>
+        <v>2647112448.869772</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1436881479068025</v>
+        <v>0.132315618861029</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04745989268201937</v>
+        <v>0.05414020309444764</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>82</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1504412404.409464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1446040010.595918</v>
+        <v>950011145.9248792</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1612238354218985</v>
+        <v>0.1319213284769914</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03641194034840074</v>
+        <v>0.0479901240452571</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>723020000.3332731</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3299321265.30056</v>
+        <v>3042799778.556111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09240099675054429</v>
+        <v>0.1252269117539295</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02871269036093175</v>
+        <v>0.03340448321376552</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>87</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1649660647.745272</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1081655400.961755</v>
+        <v>1097207171.671245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07805319329627899</v>
+        <v>0.1003663558999799</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01935471822683917</v>
+        <v>0.02848938193872778</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>540827745.6734648</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1212016649.857663</v>
+        <v>1173982225.223862</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09617181045578052</v>
+        <v>0.08259498341720389</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03833863459774685</v>
+        <v>0.02972987479609232</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>606008348.9554266</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2970654224.015687</v>
+        <v>3796596098.0831</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1155835787337699</v>
+        <v>0.1562274815472476</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01676586338935249</v>
+        <v>0.0262348133731276</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1485327173.267005</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2688491679.289375</v>
+        <v>2879260096.130136</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1150912830042338</v>
+        <v>0.1076765401801173</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03026524366223638</v>
+        <v>0.04420595050274783</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1344245823.853667</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3799637375.900882</v>
+        <v>3804340638.385985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1354455393429896</v>
+        <v>0.1449444665995291</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03932147401087783</v>
+        <v>0.03685651977428893</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>132</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1899818718.685798</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1601351744.709467</v>
+        <v>1807972268.026614</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1012281416358638</v>
+        <v>0.1189868669804369</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03086807030965172</v>
+        <v>0.02954745419735056</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>800675864.3880188</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1303996310.113484</v>
+        <v>1110441330.295175</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09219121163296916</v>
+        <v>0.09642170911296441</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03251857388425607</v>
+        <v>0.03271138461052531</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651998082.0334232</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1380592329.8895</v>
+        <v>1224358347.566235</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08771292019039791</v>
+        <v>0.0891704707810855</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03478192159863563</v>
+        <v>0.02654834193405205</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>690296208.5421975</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2731683366.076074</v>
+        <v>2848408643.454006</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1257821819259349</v>
+        <v>0.2066567318280274</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03695061452595954</v>
+        <v>0.05738819284638472</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1365841701.50797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1419678716.849211</v>
+        <v>1127960465.346818</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09541920480956788</v>
+        <v>0.1205227840762484</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02094887050179447</v>
+        <v>0.0193229710737078</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>709839327.4582475</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>995725626.9468455</v>
+        <v>1106951569.314513</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1089950210617673</v>
+        <v>0.1162706091390461</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04002151958191107</v>
+        <v>0.0316788078706276</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>497862833.005091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2107851027.863509</v>
+        <v>2085556705.591784</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1426356143518392</v>
+        <v>0.1609165702124018</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02564706140746962</v>
+        <v>0.01746580319503765</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1053925567.345971</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2402593716.923886</v>
+        <v>2144532463.405449</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09616439363926595</v>
+        <v>0.07565146960528596</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03235702707005596</v>
+        <v>0.02744476947217447</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1201296941.116827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1704604511.426062</v>
+        <v>1396482654.480195</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1094226773760606</v>
+        <v>0.0785139051258253</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03449422227586428</v>
+        <v>0.02929014143204126</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>852302276.0727673</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1951263335.209897</v>
+        <v>2134400255.248498</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1598791551454339</v>
+        <v>0.1437268435480005</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02959744472010234</v>
+        <v>0.02480355549364335</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>975631669.5691438</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1476366322.759293</v>
+        <v>1454594435.405443</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1304976062818189</v>
+        <v>0.1590217129035708</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04837258022663828</v>
+        <v>0.06003335368607131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>738183133.5033739</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2721411365.718184</v>
+        <v>2461312117.249892</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1243635130521059</v>
+        <v>0.1532931062873669</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04386933872270054</v>
+        <v>0.03680048793258973</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>74</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1360705686.429261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4326135887.155503</v>
+        <v>4104948380.116699</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1081414657402792</v>
+        <v>0.09495200135577123</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04020656473360688</v>
+        <v>0.03646986056148264</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2163067995.289613</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2559498589.589871</v>
+        <v>2169330532.81584</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1648397570417518</v>
+        <v>0.1246210691342732</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0156167687487485</v>
+        <v>0.01591428239004133</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1279749337.486456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1622159284.148595</v>
+        <v>1908555794.664013</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1029692573851179</v>
+        <v>0.101349309313798</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03095877121858563</v>
+        <v>0.03564318092751906</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>811079673.020112</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2437738648.166966</v>
+        <v>1933148022.018706</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1660047855619206</v>
+        <v>0.1180070145967808</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03455793078825561</v>
+        <v>0.04764423636962058</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1218869359.047649</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4661029548.653583</v>
+        <v>4844014121.154193</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1785858341036523</v>
+        <v>0.1744388630766959</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03964722689319727</v>
+        <v>0.05643137716195717</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>106</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2330514781.697905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4671279154.509259</v>
+        <v>3763181434.79665</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1287388543638907</v>
+        <v>0.1232313090393546</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04237714507072595</v>
+        <v>0.0473169907238246</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>80</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2335639614.414486</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3159581551.59346</v>
+        <v>4540564230.921324</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08648704237235079</v>
+        <v>0.1068162770893933</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03894836032168746</v>
+        <v>0.02879407712095754</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1579790858.996252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1236218976.146752</v>
+        <v>1832028310.715036</v>
       </c>
       <c r="F49" t="n">
-        <v>0.155388398502205</v>
+        <v>0.1302582915432341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04169126004778181</v>
+        <v>0.03156894949476216</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>618109561.1114094</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3728807275.600534</v>
+        <v>2767282121.712379</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1530698863310005</v>
+        <v>0.1273259713949989</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05326423655900582</v>
+        <v>0.0432752168870051</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>102</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1864403645.800627</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1421859056.763026</v>
+        <v>1484522734.68709</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1345409202834278</v>
+        <v>0.1590497705055627</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03536498598988844</v>
+        <v>0.03605422785780308</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>710929543.9703332</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3682049489.227729</v>
+        <v>4942382511.148283</v>
       </c>
       <c r="F52" t="n">
-        <v>0.129386906594864</v>
+        <v>0.1054350749902087</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0492850854869635</v>
+        <v>0.04274475586335719</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>123</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1841024819.804893</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3545884305.686807</v>
+        <v>3551999132.875281</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1897930814381139</v>
+        <v>0.1549528218742249</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0342122997402819</v>
+        <v>0.02505863631022018</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1772942147.614911</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4111315496.106421</v>
+        <v>3951855130.132008</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1023301354354232</v>
+        <v>0.1542934378882356</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04705392479353206</v>
+        <v>0.03990841196345746</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2055657820.878237</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4264208190.593825</v>
+        <v>3716945811.995149</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2045874815151704</v>
+        <v>0.190403752696012</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02069107397275908</v>
+        <v>0.0303548707239578</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>86</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2132104081.84745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1231767818.646111</v>
+        <v>1612355893.540908</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1371166129424378</v>
+        <v>0.1495347727238221</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04015925199760922</v>
+        <v>0.0477244096789065</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>615883991.3481609</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3224895596.259222</v>
+        <v>3259021905.474456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1648615501263135</v>
+        <v>0.1209601629907125</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02361250580717287</v>
+        <v>0.0178652842646997</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>95</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1612447821.419056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1658713579.876709</v>
+        <v>1345569032.908895</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1898677302555763</v>
+        <v>0.1350697682544077</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03980719425992033</v>
+        <v>0.03200400020834539</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>829356806.5935411</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3937940821.399188</v>
+        <v>4739586058.297573</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0867968335138472</v>
+        <v>0.09547180919776062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04972920988367604</v>
+        <v>0.04168422292677613</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>81</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1968970389.651923</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2314323004.435016</v>
+        <v>3674223109.084698</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1819225087833283</v>
+        <v>0.1369915665583351</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03036891960879161</v>
+        <v>0.02453623259865488</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1157161500.64348</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2175978269.887287</v>
+        <v>2965540679.950274</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1217345187624964</v>
+        <v>0.1096092520349231</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02586131594039819</v>
+        <v>0.02855316851473281</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>103</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1087989193.121213</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1855997147.388619</v>
+        <v>1919687267.109579</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1549617012032057</v>
+        <v>0.1760887572304338</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03200208235198854</v>
+        <v>0.03903261562910561</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>927998610.1804385</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5203958808.283469</v>
+        <v>4544986272.688124</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1046857962700092</v>
+        <v>0.08754556838837754</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03743107840090169</v>
+        <v>0.04770511470632809</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>85</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2601979412.805258</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5429975083.745229</v>
+        <v>4746082444.045109</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1922660391835616</v>
+        <v>0.160374253574212</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02866842448366066</v>
+        <v>0.0305511150906936</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>93</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2714987678.320327</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5836737847.628081</v>
+        <v>5758502326.806036</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1303024091094976</v>
+        <v>0.1729100869919157</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0227069259854594</v>
+        <v>0.01960533094077216</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>107</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2918368832.803698</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5312162465.364237</v>
+        <v>5607597513.368298</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1364507171014601</v>
+        <v>0.1163930958024107</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04774363035772277</v>
+        <v>0.03678638959559874</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>87</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2656081276.541171</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2325530230.731232</v>
+        <v>2649593719.66085</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07673078243287569</v>
+        <v>0.09175927354826488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05055126901846472</v>
+        <v>0.04723553656328142</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>96</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1162765190.767006</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5188996107.304042</v>
+        <v>4860009281.727957</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1149065169726274</v>
+        <v>0.09709168087170685</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03503231649272048</v>
+        <v>0.04449863347299775</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2594498121.497262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1565732510.297094</v>
+        <v>2133844629.670141</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1781349681593772</v>
+        <v>0.1540951372794163</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04398865004009338</v>
+        <v>0.04643324127974974</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>782866203.9334308</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2966098326.234266</v>
+        <v>3620567431.428028</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09147792432733758</v>
+        <v>0.08560899657786125</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03780495614888246</v>
+        <v>0.03126406014775756</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>85</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1483049137.97598</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5582481111.430708</v>
+        <v>4402271502.973681</v>
       </c>
       <c r="F71" t="n">
-        <v>0.11651886794842</v>
+        <v>0.1292917709555083</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0325650821844707</v>
+        <v>0.02973839367704225</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2791240704.882251</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1587117597.363687</v>
+        <v>2116107826.660676</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07406767651638473</v>
+        <v>0.09501854116801908</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04375394465240171</v>
+        <v>0.05213433607876024</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>793558811.6363689</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3411765497.988251</v>
+        <v>2342654378.613652</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09190900840058958</v>
+        <v>0.09470056135215552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05154258914631207</v>
+        <v>0.04232124078523794</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>114</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1705882707.277364</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3030187593.441544</v>
+        <v>2762949753.980422</v>
       </c>
       <c r="F74" t="n">
-        <v>0.14387773560368</v>
+        <v>0.1250691006973696</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03087420603289692</v>
+        <v>0.02610284135612682</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>102</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1515093859.522812</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2474706423.504097</v>
+        <v>1530507920.704677</v>
       </c>
       <c r="F75" t="n">
-        <v>0.123139522108723</v>
+        <v>0.1417077014967456</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0250496406141933</v>
+        <v>0.03689033092415658</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1237353131.495669</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3457269764.633141</v>
+        <v>3622271791.659927</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1035993219442315</v>
+        <v>0.09445094809627021</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02921701335055179</v>
+        <v>0.02081721181707101</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>72</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1728634844.304019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1563458555.978666</v>
+        <v>2301528802.887758</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1626454988703991</v>
+        <v>0.121707996352301</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02485609991649134</v>
+        <v>0.02745489441039949</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>781729275.0091909</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4194770143.747137</v>
+        <v>3981332850.281639</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09849434667081801</v>
+        <v>0.1328564885863265</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04454138465912897</v>
+        <v>0.04054824783199491</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>104</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2097385023.675203</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1727397498.523602</v>
+        <v>1319119348.151272</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1346768628803035</v>
+        <v>0.1371686168219436</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03195971903215311</v>
+        <v>0.04069100665695336</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>863698823.2623763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5270566233.141619</v>
+        <v>5350199289.975123</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09264519864777961</v>
+        <v>0.1021663441705477</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02537134833262578</v>
+        <v>0.03734060352729501</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2635283179.246964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3728757685.493148</v>
+        <v>3961834634.539423</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1023597951287701</v>
+        <v>0.1100571761013708</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02730348761073516</v>
+        <v>0.02387072016815612</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>67</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1864378795.870065</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4040370759.68862</v>
+        <v>5027778247.812904</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1899845625126923</v>
+        <v>0.1611664503060456</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02243254310302002</v>
+        <v>0.01966149020149094</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2020185417.358245</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1636297644.657334</v>
+        <v>2428393915.750964</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1473554165234735</v>
+        <v>0.1345724675710026</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0320224357244013</v>
+        <v>0.02932668972037585</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>818148762.3375213</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1992699279.691364</v>
+        <v>1727642589.861058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08087436380464914</v>
+        <v>0.09738588729646253</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05039849283785654</v>
+        <v>0.03324631160472138</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>996349645.8999013</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2395493184.619615</v>
+        <v>3463007423.723737</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1235862992052011</v>
+        <v>0.173462173944755</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05637704809059615</v>
+        <v>0.05359587960787053</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>113</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1197746585.724925</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2752718163.112864</v>
+        <v>1712437340.044403</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1304677085307142</v>
+        <v>0.1386730253483891</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02096957589336274</v>
+        <v>0.01832780910544273</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1376359213.838816</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1480655458.650537</v>
+        <v>1462916009.633947</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1444335820340593</v>
+        <v>0.1575235529780371</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02956325455851616</v>
+        <v>0.03025578675364286</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>740327856.8535849</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2960049830.067532</v>
+        <v>2337266607.078987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1353635374351486</v>
+        <v>0.1410385241126483</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03980351624177863</v>
+        <v>0.02715380090237151</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>119</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1480024941.542421</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2482127628.024565</v>
+        <v>2413068219.645184</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1272907066199595</v>
+        <v>0.1355219484476242</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03314825491294174</v>
+        <v>0.03869154533109197</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1241063890.073228</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1617624978.525052</v>
+        <v>1321024080.577036</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0933926321564965</v>
+        <v>0.09537913500858773</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03397287161067378</v>
+        <v>0.04745577496342491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>808812489.5538695</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2108184342.152752</v>
+        <v>1629355274.622915</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1334796943085194</v>
+        <v>0.1820389313176509</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05661790075242946</v>
+        <v>0.05961087435024665</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1054092128.906931</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2126436446.320856</v>
+        <v>1820034658.111444</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07857531556666711</v>
+        <v>0.08365103961245748</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04280075459237546</v>
+        <v>0.04468416955367491</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1063218178.883455</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4939876792.9733</v>
+        <v>4721310311.709012</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238524690491343</v>
+        <v>0.1363169938717038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03667743430331571</v>
+        <v>0.04282708226636038</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2469938336.312832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1667032909.23351</v>
+        <v>2177120682.646068</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1337353161008256</v>
+        <v>0.1639211648288112</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03805290295517427</v>
+        <v>0.03856226402980752</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>833516409.6136491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2968797381.433624</v>
+        <v>2130936259.349842</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1359191767913892</v>
+        <v>0.08639809688480614</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03568331559210555</v>
+        <v>0.04340540561018477</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1484398692.722157</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2221997755.808369</v>
+        <v>2105485705.637912</v>
       </c>
       <c r="F96" t="n">
-        <v>0.117330889585902</v>
+        <v>0.09702071343504262</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03435727889477307</v>
+        <v>0.03519758192620483</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1110998841.185825</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4287478380.474177</v>
+        <v>3982686583.660594</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364373635498008</v>
+        <v>0.1166099976269186</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02327237513797236</v>
+        <v>0.01783326180647433</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2143739269.731538</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3345800804.673209</v>
+        <v>3338076155.033165</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09227761327819962</v>
+        <v>0.1223915304733213</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02680697479030036</v>
+        <v>0.02794351879989534</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1672900410.5127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2984576165.829617</v>
+        <v>3388064472.126764</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1398573826559156</v>
+        <v>0.1234457728098406</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0243254681606989</v>
+        <v>0.02215995297153121</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1492288067.755604</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3325903334.902817</v>
+        <v>3070657227.977125</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1328473636603247</v>
+        <v>0.155831562752131</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02332543799984694</v>
+        <v>0.02347853104649624</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1662951684.294169</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3076464420.964219</v>
+        <v>3080218822.772324</v>
       </c>
       <c r="F101" t="n">
-        <v>0.164099593655412</v>
+        <v>0.1501184578009893</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04489799506582347</v>
+        <v>0.0371737075743033</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>119</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1538232309.649792</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_299.xlsx
+++ b/output/fit_clients/fit_round_299.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2442526964.404023</v>
+        <v>2442005617.642005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08239825281370218</v>
+        <v>0.1126482106841536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03332241084972873</v>
+        <v>0.03510427051900928</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2027780670.84756</v>
+        <v>1787920273.432826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1837076744359231</v>
+        <v>0.1802150181945658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04736715732293507</v>
+        <v>0.03783521996947336</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5186626424.283949</v>
+        <v>3755742787.072457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1299932963278433</v>
+        <v>0.1427655935136593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03433348573149766</v>
+        <v>0.02649672250429186</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3862180807.691206</v>
+        <v>2968179077.207403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08666594613922353</v>
+        <v>0.07148388043981897</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03814146859126781</v>
+        <v>0.04579314569810219</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2607527215.983567</v>
+        <v>2211432849.405841</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1267696177856782</v>
+        <v>0.1226410630446995</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0464096990397174</v>
+        <v>0.04605322970401575</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2393430683.94765</v>
+        <v>3070357293.086432</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0989331008260554</v>
+        <v>0.08175871386368543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04367518666133011</v>
+        <v>0.04877787720257525</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3416826895.874147</v>
+        <v>3388483992.554321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1485354507399941</v>
+        <v>0.1445937048075095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02566554189583427</v>
+        <v>0.02098183139356302</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2244582434.954215</v>
+        <v>1770502831.685712</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1418164171063596</v>
+        <v>0.1530696302730246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02693474807336626</v>
+        <v>0.02724427003230801</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4844508742.21237</v>
+        <v>5453551398.484071</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1548826921259399</v>
+        <v>0.1688633564231061</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0361870259916417</v>
+        <v>0.03330076557304587</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4067170731.810237</v>
+        <v>3840545112.145646</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1167019033987411</v>
+        <v>0.1523020968261424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04536861390652581</v>
+        <v>0.04622285950853106</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2395338847.735479</v>
+        <v>2576646569.444252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1490009540807608</v>
+        <v>0.1808178384234574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04407233243540156</v>
+        <v>0.0395261631454442</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3525958124.816294</v>
+        <v>4125750758.155977</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09295005243859986</v>
+        <v>0.06274424268783807</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0296443731125627</v>
+        <v>0.02302591158218071</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2986144415.628241</v>
+        <v>2701771717.819646</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1594562491698557</v>
+        <v>0.1865004862492255</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03096600799011271</v>
+        <v>0.02737786230004728</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1284648166.303349</v>
+        <v>1138844058.502539</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1067910671668989</v>
+        <v>0.08457204965074365</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04504156707611585</v>
+        <v>0.03524368454809886</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2618083774.407842</v>
+        <v>2236638524.27867</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1114167215197382</v>
+        <v>0.1094606579378597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04024469516338978</v>
+        <v>0.03774075490847002</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4638690528.291283</v>
+        <v>4092400821.66958</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1659880924263093</v>
+        <v>0.1558423266411954</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04912081542873016</v>
+        <v>0.04013093068392029</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3640465989.102397</v>
+        <v>3662661273.540131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1376042700578391</v>
+        <v>0.1413462411342681</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02133589706295369</v>
+        <v>0.03267317594259073</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1074999627.690583</v>
+        <v>1022355510.901206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1383695018171789</v>
+        <v>0.1454698416003846</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01888652832448965</v>
+        <v>0.02279249886687751</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2621354232.99122</v>
+        <v>1970560326.960352</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009828293412563</v>
+        <v>0.1216847682805637</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03073771303395358</v>
+        <v>0.01964323796239392</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1747979062.421157</v>
+        <v>1904276036.662265</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07085290412634915</v>
+        <v>0.09574668891373839</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03440561164513607</v>
+        <v>0.03625981184632158</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2647112448.869772</v>
+        <v>3537814089.100861</v>
       </c>
       <c r="F22" t="n">
-        <v>0.132315618861029</v>
+        <v>0.1398387962770312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05414020309444764</v>
+        <v>0.04302200366321837</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950011145.9248792</v>
+        <v>1448222073.492676</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1319213284769914</v>
+        <v>0.1659353817122361</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0479901240452571</v>
+        <v>0.04101981556277317</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3042799778.556111</v>
+        <v>2823682532.090308</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1252269117539295</v>
+        <v>0.105751565541108</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03340448321376552</v>
+        <v>0.03554329437350433</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1097207171.671245</v>
+        <v>1056841398.989424</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1003663558999799</v>
+        <v>0.09420211156731156</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02848938193872778</v>
+        <v>0.02442903098556075</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1173982225.223862</v>
+        <v>1337535300.225402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08259498341720389</v>
+        <v>0.08092427054920612</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02972987479609232</v>
+        <v>0.03728102619868244</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3796596098.0831</v>
+        <v>4615068611.42285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1562274815472476</v>
+        <v>0.09836651485440563</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0262348133731276</v>
+        <v>0.02308357238787574</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2879260096.130136</v>
+        <v>2990519837.084768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1076765401801173</v>
+        <v>0.1104650136014629</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04420595050274783</v>
+        <v>0.04400796193002782</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3804340638.385985</v>
+        <v>4428395433.673573</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1449444665995291</v>
+        <v>0.1096544839177045</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03685651977428893</v>
+        <v>0.03016352019883162</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1807972268.026614</v>
+        <v>2016585786.364791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189868669804369</v>
+        <v>0.109526034862211</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02954745419735056</v>
+        <v>0.03631264267400879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1110441330.295175</v>
+        <v>1263041226.733859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09642170911296441</v>
+        <v>0.1009147278083943</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03271138461052531</v>
+        <v>0.03733948044235212</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1224358347.566235</v>
+        <v>1804928417.655713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0891704707810855</v>
+        <v>0.08557536774171624</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02654834193405205</v>
+        <v>0.02564836327894991</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2848408643.454006</v>
+        <v>2964384801.574373</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2066567318280274</v>
+        <v>0.1758261947469288</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05738819284638472</v>
+        <v>0.04185679637320377</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1127960465.346818</v>
+        <v>1354383248.531565</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205227840762484</v>
+        <v>0.08317468045958326</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0193229710737078</v>
+        <v>0.01761381979123735</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1106951569.314513</v>
+        <v>1229332986.373424</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1162706091390461</v>
+        <v>0.09066823926576678</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0316788078706276</v>
+        <v>0.03927002120805873</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2085556705.591784</v>
+        <v>2920102839.85532</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1609165702124018</v>
+        <v>0.1206647945498698</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01746580319503765</v>
+        <v>0.01841882340055104</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2144532463.405449</v>
+        <v>2533099924.347346</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07565146960528596</v>
+        <v>0.09383921379386558</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02744476947217447</v>
+        <v>0.04051192715288236</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1396482654.480195</v>
+        <v>1892353690.030664</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0785139051258253</v>
+        <v>0.1093819745095242</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02929014143204126</v>
+        <v>0.02849221373885641</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2134400255.248498</v>
+        <v>1348283106.941216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1437268435480005</v>
+        <v>0.1657699941598711</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02480355549364335</v>
+        <v>0.03095406045511314</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1454594435.405443</v>
+        <v>1169723990.296686</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1590217129035708</v>
+        <v>0.09810714098436982</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06003335368607131</v>
+        <v>0.03820092538508326</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2461312117.249892</v>
+        <v>2289065796.006095</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1532931062873669</v>
+        <v>0.110558160789545</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03680048793258973</v>
+        <v>0.02851223860829543</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4104948380.116699</v>
+        <v>3894379193.852673</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09495200135577123</v>
+        <v>0.08225054475539108</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03646986056148264</v>
+        <v>0.04603792373008828</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2169330532.81584</v>
+        <v>2067901344.688005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1246210691342732</v>
+        <v>0.1702111468862856</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01591428239004133</v>
+        <v>0.0252441770942637</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1908555794.664013</v>
+        <v>2170095211.444236</v>
       </c>
       <c r="F44" t="n">
-        <v>0.101349309313798</v>
+        <v>0.1017035201376419</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03564318092751906</v>
+        <v>0.02478063034839628</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1933148022.018706</v>
+        <v>2046333030.073237</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1180070145967808</v>
+        <v>0.1534321667804478</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04764423636962058</v>
+        <v>0.03677862836911146</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4844014121.154193</v>
+        <v>3905414393.414598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744388630766959</v>
+        <v>0.1452574549705589</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05643137716195717</v>
+        <v>0.05175135350769235</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3763181434.79665</v>
+        <v>4208421998.590942</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1232313090393546</v>
+        <v>0.1325622666446951</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0473169907238246</v>
+        <v>0.03618158608601942</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4540564230.921324</v>
+        <v>3820904150.422162</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1068162770893933</v>
+        <v>0.07343036821828695</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02879407712095754</v>
+        <v>0.03728981194742713</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1832028310.715036</v>
+        <v>1867762570.710462</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1302582915432341</v>
+        <v>0.1689268680495818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03156894949476216</v>
+        <v>0.0446095343676587</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2767282121.712379</v>
+        <v>3591099062.474496</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1273259713949989</v>
+        <v>0.126009446273859</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0432752168870051</v>
+        <v>0.04633398846567613</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1484522734.68709</v>
+        <v>1012997069.222758</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1590497705055627</v>
+        <v>0.1203380921643449</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03605422785780308</v>
+        <v>0.04266221791648132</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4942382511.148283</v>
+        <v>3570233328.391069</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1054350749902087</v>
+        <v>0.1233642971044596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04274475586335719</v>
+        <v>0.03914748499400584</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3551999132.875281</v>
+        <v>2654889813.861128</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1549528218742249</v>
+        <v>0.2004937816343582</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02505863631022018</v>
+        <v>0.03042144119499415</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3951855130.132008</v>
+        <v>3358361145.919216</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1542934378882356</v>
+        <v>0.1565010617439424</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03990841196345746</v>
+        <v>0.04821757149176215</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3716945811.995149</v>
+        <v>3571100215.687362</v>
       </c>
       <c r="F55" t="n">
-        <v>0.190403752696012</v>
+        <v>0.1627760195759179</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0303548707239578</v>
+        <v>0.02156864761409936</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1612355893.540908</v>
+        <v>1284530203.868608</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1495347727238221</v>
+        <v>0.1607672726678631</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0477244096789065</v>
+        <v>0.05741164048546241</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3259021905.474456</v>
+        <v>4022839516.716391</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1209601629907125</v>
+        <v>0.1444455069583104</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0178652842646997</v>
+        <v>0.02084764292033817</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1345569032.908895</v>
+        <v>1865662712.134354</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1350697682544077</v>
+        <v>0.1271556864945791</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03200400020834539</v>
+        <v>0.02761376276155376</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4739586058.297573</v>
+        <v>4214044049.355088</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09547180919776062</v>
+        <v>0.127547839359339</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04168422292677613</v>
+        <v>0.03186587277427097</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3674223109.084698</v>
+        <v>3023371871.934336</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1369915665583351</v>
+        <v>0.1947031629805636</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02453623259865488</v>
+        <v>0.03161265071734214</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2965540679.950274</v>
+        <v>2174502957.219088</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1096092520349231</v>
+        <v>0.1360188404799953</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02855316851473281</v>
+        <v>0.02341647416665647</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1919687267.109579</v>
+        <v>1696195353.842952</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1760887572304338</v>
+        <v>0.1279850493039952</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03903261562910561</v>
+        <v>0.04004645351433572</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4544986272.688124</v>
+        <v>3857339873.318179</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08754556838837754</v>
+        <v>0.0764230425001212</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04770511470632809</v>
+        <v>0.04618413208911535</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4746082444.045109</v>
+        <v>4756603492.812222</v>
       </c>
       <c r="F64" t="n">
-        <v>0.160374253574212</v>
+        <v>0.156928935729067</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0305511150906936</v>
+        <v>0.02591531719347149</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5758502326.806036</v>
+        <v>5247211396.477381</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1729100869919157</v>
+        <v>0.1315867187944138</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01960533094077216</v>
+        <v>0.02601175597061403</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5607597513.368298</v>
+        <v>4125444207.660974</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1163930958024107</v>
+        <v>0.1104480164676999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03678638959559874</v>
+        <v>0.03325284680760553</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2649593719.66085</v>
+        <v>2757235163.216067</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09175927354826488</v>
+        <v>0.08957739487322056</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04723553656328142</v>
+        <v>0.04721490579842867</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4860009281.727957</v>
+        <v>5680822780.909631</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09709168087170685</v>
+        <v>0.1096837352085191</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04449863347299775</v>
+        <v>0.03578829833737791</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2133844629.670141</v>
+        <v>1532450918.307076</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1540951372794163</v>
+        <v>0.155890640238084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04643324127974974</v>
+        <v>0.05770350326728054</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3620567431.428028</v>
+        <v>3055032882.321684</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08560899657786125</v>
+        <v>0.1000698790314206</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03126406014775756</v>
+        <v>0.04904086953644916</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4402271502.973681</v>
+        <v>4287332377.318553</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1292917709555083</v>
+        <v>0.182128972242173</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02973839367704225</v>
+        <v>0.02463895067534993</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2116107826.660676</v>
+        <v>2162780326.929034</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09501854116801908</v>
+        <v>0.08613785957252511</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05213433607876024</v>
+        <v>0.0364404503965067</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2342654378.613652</v>
+        <v>3098495953.428292</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09470056135215552</v>
+        <v>0.09463011197910985</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04232124078523794</v>
+        <v>0.04938552439491708</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2762949753.980422</v>
+        <v>2594689471.321607</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1250691006973696</v>
+        <v>0.1223215804187907</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02610284135612682</v>
+        <v>0.03279605524881007</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1530507920.704677</v>
+        <v>1928889393.470625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1417077014967456</v>
+        <v>0.1634128776128806</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03689033092415658</v>
+        <v>0.02406245483600309</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3622271791.659927</v>
+        <v>5035270083.252214</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09445094809627021</v>
+        <v>0.1244674964878213</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02081721181707101</v>
+        <v>0.02287276590569695</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2301528802.887758</v>
+        <v>2089736313.126567</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121707996352301</v>
+        <v>0.1241173999186024</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02745489441039949</v>
+        <v>0.031340818649604</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3981332850.281639</v>
+        <v>2936415515.025914</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1328564885863265</v>
+        <v>0.1026992349777755</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04054824783199491</v>
+        <v>0.03702063172827538</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1319119348.151272</v>
+        <v>1715328668.300464</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1371686168219436</v>
+        <v>0.1634183857512012</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04069100665695336</v>
+        <v>0.03777710083267529</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5350199289.975123</v>
+        <v>4401875132.134953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1021663441705477</v>
+        <v>0.06866039807551606</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03734060352729501</v>
+        <v>0.03158932809592151</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3961834634.539423</v>
+        <v>3830339700.917881</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1100571761013708</v>
+        <v>0.09904662522683293</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02387072016815612</v>
+        <v>0.03166244495888614</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5027778247.812904</v>
+        <v>5204805096.8272</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1611664503060456</v>
+        <v>0.1330855608217171</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01966149020149094</v>
+        <v>0.02218987320988005</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2428393915.750964</v>
+        <v>1589328725.774294</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1345724675710026</v>
+        <v>0.1370552213893397</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02932668972037585</v>
+        <v>0.03046711662245851</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1727642589.861058</v>
+        <v>2170345855.684651</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09738588729646253</v>
+        <v>0.07370983467930109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03324631160472138</v>
+        <v>0.03341044949500176</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3463007423.723737</v>
+        <v>3414176324.711304</v>
       </c>
       <c r="F85" t="n">
-        <v>0.173462173944755</v>
+        <v>0.180722812953725</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05359587960787053</v>
+        <v>0.05684636822329686</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1712437340.044403</v>
+        <v>2007623378.76964</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1386730253483891</v>
+        <v>0.1470581623605226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01832780910544273</v>
+        <v>0.01934157809826759</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1462916009.633947</v>
+        <v>1028970508.759228</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1575235529780371</v>
+        <v>0.170256243550857</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03025578675364286</v>
+        <v>0.02850882274165114</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2337266607.078987</v>
+        <v>3108133818.45972</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1410385241126483</v>
+        <v>0.1385384219751052</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02715380090237151</v>
+        <v>0.02752095012654177</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2413068219.645184</v>
+        <v>2162751264.05323</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1355219484476242</v>
+        <v>0.1338430475699502</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03869154533109197</v>
+        <v>0.03125639128802503</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1321024080.577036</v>
+        <v>1665991226.064461</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09537913500858773</v>
+        <v>0.1092814203279128</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04745577496342491</v>
+        <v>0.03910524678924076</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1629355274.622915</v>
+        <v>1625839070.408847</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1820389313176509</v>
+        <v>0.1825184821150408</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05961087435024665</v>
+        <v>0.05025822373547868</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1820034658.111444</v>
+        <v>2249390317.724499</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08365103961245748</v>
+        <v>0.0676169034494401</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04468416955367491</v>
+        <v>0.03613401129409248</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4721310311.709012</v>
+        <v>4704683200.891384</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1363169938717038</v>
+        <v>0.138247878249873</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04282708226636038</v>
+        <v>0.05052964615216997</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2177120682.646068</v>
+        <v>2406479591.585936</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1639211648288112</v>
+        <v>0.1420939815275794</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03856226402980752</v>
+        <v>0.0377206612109749</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2130936259.349842</v>
+        <v>2490152664.860168</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08639809688480614</v>
+        <v>0.09033593324432103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04340540561018477</v>
+        <v>0.04544228816906586</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2105485705.637912</v>
+        <v>1632562751.278044</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09702071343504262</v>
+        <v>0.1044170680114168</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03519758192620483</v>
+        <v>0.02880770207564082</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3982686583.660594</v>
+        <v>4716473725.501681</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1166099976269186</v>
+        <v>0.1519944565408284</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01783326180647433</v>
+        <v>0.02736097583663765</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3338076155.033165</v>
+        <v>3239174863.482652</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1223915304733213</v>
+        <v>0.1166030828145339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02794351879989534</v>
+        <v>0.02601222098677783</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3388064472.126764</v>
+        <v>3208228142.112379</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1234457728098406</v>
+        <v>0.1254213327052621</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02215995297153121</v>
+        <v>0.03380679356513829</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3070657227.977125</v>
+        <v>4304799592.804166</v>
       </c>
       <c r="F100" t="n">
-        <v>0.155831562752131</v>
+        <v>0.1485072545398856</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02347853104649624</v>
+        <v>0.02492245522994311</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3080218822.772324</v>
+        <v>3520948957.680507</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1501184578009893</v>
+        <v>0.1393799891045995</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0371737075743033</v>
+        <v>0.05555310493171396</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_299.xlsx
+++ b/output/fit_clients/fit_round_299.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2442005617.642005</v>
+        <v>2204486716.619149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1126482106841536</v>
+        <v>0.09410121954264319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03510427051900928</v>
+        <v>0.03310257631858195</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1787920273.432826</v>
+        <v>2443208218.677775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1802150181945658</v>
+        <v>0.1329276021853032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03783521996947336</v>
+        <v>0.04750130223405998</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3755742787.072457</v>
+        <v>4401784799.331617</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1427655935136593</v>
+        <v>0.1361333802632268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02649672250429186</v>
+        <v>0.02919669881721516</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>157</v>
+      </c>
+      <c r="J4" t="n">
+        <v>299</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2968179077.207403</v>
+        <v>3268414570.313872</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07148388043981897</v>
+        <v>0.1053589055828328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04579314569810219</v>
+        <v>0.04051217008217146</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J5" t="n">
+        <v>298</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74.64879981417027</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2211432849.405841</v>
+        <v>1744781077.784412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1226410630446995</v>
+        <v>0.1047011079634893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04605322970401575</v>
+        <v>0.047802970323796</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3070357293.086432</v>
+        <v>2560048244.819104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08175871386368543</v>
+        <v>0.09557077729372206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04877787720257525</v>
+        <v>0.04634072746829869</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3388483992.554321</v>
+        <v>3110183421.563284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1445937048075095</v>
+        <v>0.1871696320784259</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02098183139356302</v>
+        <v>0.03099610696623191</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1770502831.685712</v>
+        <v>1480838313.278328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1530696302730246</v>
+        <v>0.1317102810325714</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02724427003230801</v>
+        <v>0.02407147990538153</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5453551398.484071</v>
+        <v>5190672122.29663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1688633564231061</v>
+        <v>0.1815559050432083</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03330076557304587</v>
+        <v>0.03525870920755853</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>265</v>
+      </c>
+      <c r="J10" t="n">
+        <v>298</v>
+      </c>
+      <c r="K10" t="n">
+        <v>83.10502443054197</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3840545112.145646</v>
+        <v>3232630128.885601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1523020968261424</v>
+        <v>0.1636039254148912</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04622285950853106</v>
+        <v>0.04113892337081562</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>119</v>
+      </c>
+      <c r="J11" t="n">
+        <v>297</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2576646569.444252</v>
+        <v>2254800528.272383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1808178384234574</v>
+        <v>0.1845997054797344</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0395261631454442</v>
+        <v>0.03527791902631428</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4125750758.155977</v>
+        <v>5059240360.531338</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06274424268783807</v>
+        <v>0.08434972394544368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02302591158218071</v>
+        <v>0.02189917098497143</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>153</v>
+      </c>
+      <c r="J13" t="n">
+        <v>299</v>
+      </c>
+      <c r="K13" t="n">
+        <v>84.08134081090591</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2701771717.819646</v>
+        <v>3322484382.441885</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1865004862492255</v>
+        <v>0.1623611895150846</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02737786230004728</v>
+        <v>0.04411814225464917</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="n">
+        <v>75.85852887090505</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1138844058.502539</v>
+        <v>1568730983.147893</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08457204965074365</v>
+        <v>0.09379471964119274</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03524368454809886</v>
+        <v>0.03446323336450152</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2236638524.27867</v>
+        <v>2088369422.731772</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1094606579378597</v>
+        <v>0.08602354180274895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03774075490847002</v>
+        <v>0.04303928931150135</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4092400821.66958</v>
+        <v>4510321588.130536</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1558423266411954</v>
+        <v>0.1360380062104399</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04013093068392029</v>
+        <v>0.05149538748736829</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>141</v>
+      </c>
+      <c r="J17" t="n">
+        <v>299</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3662661273.540131</v>
+        <v>3422740180.857973</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1413462411342681</v>
+        <v>0.1340272459544977</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03267317594259073</v>
+        <v>0.02672609988223741</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="n">
+        <v>75.93683530256439</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1022355510.901206</v>
+        <v>1188119348.920926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1454698416003846</v>
+        <v>0.1520399053331181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02279249886687751</v>
+        <v>0.02515015442347724</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1970560326.960352</v>
+        <v>2788327080.766461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1216847682805637</v>
+        <v>0.1445023527534783</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01964323796239392</v>
+        <v>0.03147697868438062</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1904276036.662265</v>
+        <v>2357501143.974032</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09574668891373839</v>
+        <v>0.08273717486827858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03625981184632158</v>
+        <v>0.04498588326480677</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3537814089.100861</v>
+        <v>3515547509.239964</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1398387962770312</v>
+        <v>0.1093947379538666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04302200366321837</v>
+        <v>0.0565223649938242</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>81</v>
+      </c>
+      <c r="J22" t="n">
+        <v>297</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1448222073.492676</v>
+        <v>1112385178.169842</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1659353817122361</v>
+        <v>0.1677596726722989</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04101981556277317</v>
+        <v>0.0540331908170528</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2823682532.090308</v>
+        <v>3643192507.224802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.105751565541108</v>
+        <v>0.1374755039976398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03554329437350433</v>
+        <v>0.02312567823469685</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>299</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1056841398.989424</v>
+        <v>1249208864.311952</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09420211156731156</v>
+        <v>0.0889052284870399</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02442903098556075</v>
+        <v>0.02942678511662245</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1337535300.225402</v>
+        <v>1415334421.396351</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08092427054920612</v>
+        <v>0.09880013398615131</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03728102619868244</v>
+        <v>0.0290345226772569</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4615068611.42285</v>
+        <v>4640500727.549735</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09836651485440563</v>
+        <v>0.1539403438771517</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02308357238787574</v>
+        <v>0.02408280910570013</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>123</v>
+      </c>
+      <c r="J27" t="n">
+        <v>299</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2990519837.084768</v>
+        <v>3352859286.40285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1104650136014629</v>
+        <v>0.1148592109019027</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04400796193002782</v>
+        <v>0.04111614765325064</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4428395433.673573</v>
+        <v>4572906015.375669</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1096544839177045</v>
+        <v>0.1312863795928065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03016352019883162</v>
+        <v>0.04343916894946515</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>282</v>
+      </c>
+      <c r="J29" t="n">
+        <v>298</v>
+      </c>
+      <c r="K29" t="n">
+        <v>83.21129838776515</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2016585786.364791</v>
+        <v>2099770893.530549</v>
       </c>
       <c r="F30" t="n">
-        <v>0.109526034862211</v>
+        <v>0.1389220446397025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03631264267400879</v>
+        <v>0.03515307955587819</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1263041226.733859</v>
+        <v>934735653.7921424</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1009147278083943</v>
+        <v>0.07015974699215716</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03733948044235212</v>
+        <v>0.04263649412431565</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1804928417.655713</v>
+        <v>1770706287.27083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08557536774171624</v>
+        <v>0.08990808809210242</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02564836327894991</v>
+        <v>0.0278360736385075</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2964384801.574373</v>
+        <v>2162915216.630447</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1758261947469288</v>
+        <v>0.1572596570142839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04185679637320377</v>
+        <v>0.05158269092326956</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1354383248.531565</v>
+        <v>1303034496.417072</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08317468045958326</v>
+        <v>0.1182292916101115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01761381979123735</v>
+        <v>0.02330695426345636</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1229332986.373424</v>
+        <v>974469298.3952352</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09066823926576678</v>
+        <v>0.07828553975853619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03927002120805873</v>
+        <v>0.02814269360546183</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2920102839.85532</v>
+        <v>2182335508.555374</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206647945498698</v>
+        <v>0.1773097111265101</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01841882340055104</v>
+        <v>0.02669038505888385</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2533099924.347346</v>
+        <v>2136755739.203957</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09383921379386558</v>
+        <v>0.07066054008004684</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04051192715288236</v>
+        <v>0.04227806171794975</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1892353690.030664</v>
+        <v>2152218243.65103</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1093819745095242</v>
+        <v>0.1106612525128901</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02849221373885641</v>
+        <v>0.02984071916335508</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1348283106.941216</v>
+        <v>1461569585.508799</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1657699941598711</v>
+        <v>0.1746785640944775</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03095406045511314</v>
+        <v>0.02078480117950162</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1169723990.296686</v>
+        <v>1614469974.797054</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09810714098436982</v>
+        <v>0.1618830392244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03820092538508326</v>
+        <v>0.05168050253663557</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2289065796.006095</v>
+        <v>2396996943.833349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.110558160789545</v>
+        <v>0.103797018528398</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851223860829543</v>
+        <v>0.03094337259979011</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3894379193.852673</v>
+        <v>2891187987.38335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08225054475539108</v>
+        <v>0.0943652357275868</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04603792373008828</v>
+        <v>0.03051193478206377</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>123</v>
+      </c>
+      <c r="J42" t="n">
+        <v>297</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2067901344.688005</v>
+        <v>2762740999.061832</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1702111468862856</v>
+        <v>0.1576785030003289</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0252441770942637</v>
+        <v>0.02554989849956148</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2170095211.444236</v>
+        <v>1532667064.198677</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1017035201376419</v>
+        <v>0.078514393842549</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02478063034839628</v>
+        <v>0.0365907731519715</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2046333030.073237</v>
+        <v>2308776934.287319</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1534321667804478</v>
+        <v>0.1253508259152668</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03677862836911146</v>
+        <v>0.04851264764832395</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3905414393.414598</v>
+        <v>4966334339.244435</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1452574549705589</v>
+        <v>0.1745016534267264</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05175135350769235</v>
+        <v>0.05214397414065639</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>178</v>
+      </c>
+      <c r="J46" t="n">
+        <v>298</v>
+      </c>
+      <c r="K46" t="n">
+        <v>82.61750554546529</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4208421998.590942</v>
+        <v>3883150841.038804</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1325622666446951</v>
+        <v>0.1298983563429641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03618158608601942</v>
+        <v>0.04732013108054083</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>133</v>
+      </c>
+      <c r="J47" t="n">
+        <v>299</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3820904150.422162</v>
+        <v>4002047317.221927</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07343036821828695</v>
+        <v>0.08158343827689281</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03728981194742713</v>
+        <v>0.02504490449055842</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>149</v>
+      </c>
+      <c r="J48" t="n">
+        <v>299</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1867762570.710462</v>
+        <v>1776062522.100392</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689268680495818</v>
+        <v>0.1779228798074496</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0446095343676587</v>
+        <v>0.03186210701647624</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3591099062.474496</v>
+        <v>2763637689.894061</v>
       </c>
       <c r="F50" t="n">
-        <v>0.126009446273859</v>
+        <v>0.1638480570271119</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04633398846567613</v>
+        <v>0.04343770014976633</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>95</v>
+      </c>
+      <c r="J50" t="n">
+        <v>298</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.95671231120443</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1012997069.222758</v>
+        <v>1082339228.649545</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1203380921643449</v>
+        <v>0.1545641529564409</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04266221791648132</v>
+        <v>0.05167994177231543</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3570233328.391069</v>
+        <v>5097168401.872647</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1233642971044596</v>
+        <v>0.09528519131637621</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03914748499400584</v>
+        <v>0.05562551507375822</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>184</v>
+      </c>
+      <c r="J52" t="n">
+        <v>298</v>
+      </c>
+      <c r="K52" t="n">
+        <v>81.993944510657</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2654889813.861128</v>
+        <v>3315762483.503352</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2004937816343582</v>
+        <v>0.1474967867399305</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03042144119499415</v>
+        <v>0.02654328924701777</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3358361145.919216</v>
+        <v>3099915576.872398</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1565010617439424</v>
+        <v>0.1484038647778764</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04821757149176215</v>
+        <v>0.03789540976321656</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>158</v>
+      </c>
+      <c r="J54" t="n">
+        <v>298</v>
+      </c>
+      <c r="K54" t="n">
+        <v>56.89705541939096</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3571100215.687362</v>
+        <v>4695674596.598385</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1627760195759179</v>
+        <v>0.2146364186762263</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02156864761409936</v>
+        <v>0.02875933667314669</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>136</v>
+      </c>
+      <c r="J55" t="n">
+        <v>299</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1284530203.868608</v>
+        <v>1279047101.594498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1607672726678631</v>
+        <v>0.1479271450602427</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05741164048546241</v>
+        <v>0.04911824973316033</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4022839516.716391</v>
+        <v>4453388597.190454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1444455069583104</v>
+        <v>0.1351385513510137</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02084764292033817</v>
+        <v>0.02329029362945752</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>122</v>
+      </c>
+      <c r="J57" t="n">
+        <v>299</v>
+      </c>
+      <c r="K57" t="n">
+        <v>85.15705429431321</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1865662712.134354</v>
+        <v>1481706419.073005</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1271556864945791</v>
+        <v>0.192811131153807</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02761376276155376</v>
+        <v>0.03131230073137413</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4214044049.355088</v>
+        <v>4356096409.705561</v>
       </c>
       <c r="F59" t="n">
-        <v>0.127547839359339</v>
+        <v>0.07931296319702398</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03186587277427097</v>
+        <v>0.04988778756306336</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>144</v>
+      </c>
+      <c r="J59" t="n">
+        <v>299</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3023371871.934336</v>
+        <v>3097885066.383609</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1947031629805636</v>
+        <v>0.1512094041611841</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03161265071734214</v>
+        <v>0.02980612155518594</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2174502957.219088</v>
+        <v>2186216383.264261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1360188404799953</v>
+        <v>0.119449463814227</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02341647416665647</v>
+        <v>0.0289648128173077</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1696195353.842952</v>
+        <v>1278480760.362761</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1279850493039952</v>
+        <v>0.1550003429308596</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04004645351433572</v>
+        <v>0.03601551222027186</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3857339873.318179</v>
+        <v>5408197855.194114</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0764230425001212</v>
+        <v>0.1017477774000097</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04618413208911535</v>
+        <v>0.042101269270786</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>145</v>
+      </c>
+      <c r="J63" t="n">
+        <v>299</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4756603492.812222</v>
+        <v>3762642449.172912</v>
       </c>
       <c r="F64" t="n">
-        <v>0.156928935729067</v>
+        <v>0.1734876176533846</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02591531719347149</v>
+        <v>0.03331078541494162</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>147</v>
+      </c>
+      <c r="J64" t="n">
+        <v>298</v>
+      </c>
+      <c r="K64" t="n">
+        <v>83.00788685047196</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5247211396.477381</v>
+        <v>4696080087.045106</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1315867187944138</v>
+        <v>0.1162911195112618</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02601175597061403</v>
+        <v>0.02511720114800743</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>238</v>
+      </c>
+      <c r="J65" t="n">
+        <v>299</v>
+      </c>
+      <c r="K65" t="n">
+        <v>84.28478580320467</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4125444207.660974</v>
+        <v>3588266637.863388</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1104480164676999</v>
+        <v>0.1613973647906503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03325284680760553</v>
+        <v>0.04877408380540504</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>147</v>
+      </c>
+      <c r="J66" t="n">
+        <v>299</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2757235163.216067</v>
+        <v>2886401080.857412</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08957739487322056</v>
+        <v>0.08420481829219524</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04721490579842867</v>
+        <v>0.04858948922438774</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5680822780.909631</v>
+        <v>4467930933.077835</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1096837352085191</v>
+        <v>0.1435718576576434</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03578829833737791</v>
+        <v>0.04685274887416743</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>158</v>
+      </c>
+      <c r="J68" t="n">
+        <v>299</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1532450918.307076</v>
+        <v>2139606433.379105</v>
       </c>
       <c r="F69" t="n">
-        <v>0.155890640238084</v>
+        <v>0.1271340993322941</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05770350326728054</v>
+        <v>0.05603267991676921</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3055032882.321684</v>
+        <v>3432018252.694876</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000698790314206</v>
+        <v>0.09620898258710066</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04904086953644916</v>
+        <v>0.04136593376555892</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>44</v>
+      </c>
+      <c r="J70" t="n">
+        <v>296</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4287332377.318553</v>
+        <v>5569407304.575055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.182128972242173</v>
+        <v>0.1443331382003568</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02463895067534993</v>
+        <v>0.0332186183728754</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>223</v>
+      </c>
+      <c r="J71" t="n">
+        <v>299</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2162780326.929034</v>
+        <v>1990117898.503247</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08613785957252511</v>
+        <v>0.07524293309898884</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0364404503965067</v>
+        <v>0.0413599418319963</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3098495953.428292</v>
+        <v>2570142505.77631</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09463011197910985</v>
+        <v>0.07860768716254433</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04938552439491708</v>
+        <v>0.05004144899883058</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2594689471.321607</v>
+        <v>3229721773.341681</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223215804187907</v>
+        <v>0.1541692631310735</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03279605524881007</v>
+        <v>0.02233143458080996</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="n">
+        <v>71.67941602443297</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1928889393.470625</v>
+        <v>1874586207.303221</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1634128776128806</v>
+        <v>0.115286185400481</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02406245483600309</v>
+        <v>0.02578726031750441</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5035270083.252214</v>
+        <v>4079731844.611208</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1244674964878213</v>
+        <v>0.1160974227707018</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02287276590569695</v>
+        <v>0.02955761381037205</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>140</v>
+      </c>
+      <c r="J76" t="n">
+        <v>299</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2089736313.126567</v>
+        <v>1801708825.216784</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1241173999186024</v>
+        <v>0.1355130504236189</v>
       </c>
       <c r="G77" t="n">
-        <v>0.031340818649604</v>
+        <v>0.02461858470730266</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2936415515.025914</v>
+        <v>3058609293.126589</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1026992349777755</v>
+        <v>0.1302982575560733</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03702063172827538</v>
+        <v>0.04736306659867165</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>149</v>
+      </c>
+      <c r="J78" t="n">
+        <v>298</v>
+      </c>
+      <c r="K78" t="n">
+        <v>55.24146890339635</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1715328668.300464</v>
+        <v>1766429939.622081</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1634183857512012</v>
+        <v>0.1579158174983744</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03777710083267529</v>
+        <v>0.0262848699568285</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4401875132.134953</v>
+        <v>3421944705.202933</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06866039807551606</v>
+        <v>0.0743679135333552</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03158932809592151</v>
+        <v>0.02403828655159673</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>146</v>
+      </c>
+      <c r="J80" t="n">
+        <v>298</v>
+      </c>
+      <c r="K80" t="n">
+        <v>51.55057818702937</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3830339700.917881</v>
+        <v>5106982102.963046</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09904662522683293</v>
+        <v>0.0851296346982691</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03166244495888614</v>
+        <v>0.02734839287112308</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>137</v>
+      </c>
+      <c r="J81" t="n">
+        <v>299</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5204805096.8272</v>
+        <v>4402629066.381221</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1330855608217171</v>
+        <v>0.1688751563476909</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02218987320988005</v>
+        <v>0.019084743684945</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>219</v>
+      </c>
+      <c r="J82" t="n">
+        <v>298</v>
+      </c>
+      <c r="K82" t="n">
+        <v>82.77250573212012</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1589328725.774294</v>
+        <v>1687173276.905903</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1370552213893397</v>
+        <v>0.1112190731820955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03046711662245851</v>
+        <v>0.03396205132909328</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2170345855.684651</v>
+        <v>1831260929.856467</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07370983467930109</v>
+        <v>0.1129258836561633</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03341044949500176</v>
+        <v>0.03313805431063824</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3414176324.711304</v>
+        <v>2348728412.07642</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180722812953725</v>
+        <v>0.1322866125419027</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05684636822329686</v>
+        <v>0.04002602395560775</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="n">
+        <v>41.57290833680747</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2007623378.76964</v>
+        <v>2787548548.548162</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1470581623605226</v>
+        <v>0.1286332520994776</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01934157809826759</v>
+        <v>0.02128062634510279</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028970508.759228</v>
+        <v>953285073.9674661</v>
       </c>
       <c r="F87" t="n">
-        <v>0.170256243550857</v>
+        <v>0.1166660248591135</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02850882274165114</v>
+        <v>0.02947749171870975</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3108133818.45972</v>
+        <v>2753444045.47577</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1385384219751052</v>
+        <v>0.1316529375632796</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02752095012654177</v>
+        <v>0.03519018886021893</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>42</v>
+      </c>
+      <c r="J88" t="n">
+        <v>296</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2162751264.05323</v>
+        <v>2992718033.098166</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1338430475699502</v>
+        <v>0.1542130769793062</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03125639128802503</v>
+        <v>0.02697139865694534</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1665991226.064461</v>
+        <v>1639624616.727286</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1092814203279128</v>
+        <v>0.1000937469731521</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03910524678924076</v>
+        <v>0.0445933948903641</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1625839070.408847</v>
+        <v>1712984610.144979</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1825184821150408</v>
+        <v>0.177852884435709</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05025822373547868</v>
+        <v>0.0517736545991268</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2249390317.724499</v>
+        <v>1993748699.219038</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0676169034494401</v>
+        <v>0.06919204622690199</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03613401129409248</v>
+        <v>0.04744772179734168</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4704683200.891384</v>
+        <v>4907404707.180316</v>
       </c>
       <c r="F93" t="n">
-        <v>0.138247878249873</v>
+        <v>0.0876572902324223</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05052964615216997</v>
+        <v>0.04428254671688701</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>133</v>
+      </c>
+      <c r="J93" t="n">
+        <v>299</v>
+      </c>
+      <c r="K93" t="n">
+        <v>83.24233129528945</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2406479591.585936</v>
+        <v>2336514230.204151</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1420939815275794</v>
+        <v>0.1598059713305616</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0377206612109749</v>
+        <v>0.04155346292766816</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2490152664.860168</v>
+        <v>2988398967.691201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09033593324432103</v>
+        <v>0.1077844851625978</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04544228816906586</v>
+        <v>0.03746163575063444</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1632562751.278044</v>
+        <v>2215906991.29322</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1044170680114168</v>
+        <v>0.09270484856922943</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02880770207564082</v>
+        <v>0.04085228924134219</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4716473725.501681</v>
+        <v>4229587301.637287</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1519944565408284</v>
+        <v>0.1424890337367914</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02736097583663765</v>
+        <v>0.01999854784424488</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>149</v>
+      </c>
+      <c r="J97" t="n">
+        <v>299</v>
+      </c>
+      <c r="K97" t="n">
+        <v>85.25109877732393</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3239174863.482652</v>
+        <v>3730597518.543523</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1166030828145339</v>
+        <v>0.1182543437842801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02601222098677783</v>
+        <v>0.02608136752749417</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>73</v>
+      </c>
+      <c r="J98" t="n">
+        <v>299</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3208228142.112379</v>
+        <v>2551528618.720942</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1254213327052621</v>
+        <v>0.0984816151225065</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03380679356513829</v>
+        <v>0.0313321502759117</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4304799592.804166</v>
+        <v>3030447627.592151</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1485072545398856</v>
+        <v>0.176844402957973</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02492245522994311</v>
+        <v>0.01754905063982859</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>129</v>
+      </c>
+      <c r="J100" t="n">
+        <v>297</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3520948957.680507</v>
+        <v>2350628317.332767</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1393799891045995</v>
+        <v>0.1471809543514184</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05555310493171396</v>
+        <v>0.03643323467079766</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
